--- a/Pushdown Automata/TabelGramatica.xlsx
+++ b/Pushdown Automata/TabelGramatica.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{352C2991-2675-4695-90E5-AB34D080F13E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3CC13C21-A0DE-4E01-9872-7E4C674106D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
-  <si>
-    <t>Nr. Stare</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -50,12 +47,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>Tabel de actiuni</t>
-  </si>
-  <si>
-    <t>Tabel de salt</t>
   </si>
   <si>
     <t>d5</t>
@@ -118,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -167,75 +158,9 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -258,58 +183,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -322,35 +201,221 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -361,6 +426,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67495CD9-7799-4A54-8521-5EC5D995F384}" name="Table1" displayName="Table1" ref="A1:I13" headerRowCount="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
+  <tableColumns count="9">
+    <tableColumn id="2" xr3:uid="{09CEE931-8CEF-4606-A8F7-64749D3A0D80}" name="Tabel de actiuni" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{02045F29-928F-472B-81FE-3E9DDE55D5C8}" name="Column1" headerRowDxfId="23" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{E0A741D2-75BD-4A5E-A54B-FAF4EC25C42F}" name="Column2" headerRowDxfId="20" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{1351D2E7-8693-433A-92B4-6F306BDFE673}" name="Column3" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{2E4BA538-4565-4665-BB11-A227104FD512}" name="Column4" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{FED5FDD1-4E7C-4609-AF3B-59EC6949624F}" name="Column5" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{3D32CBD4-12A8-4E76-86F1-EBEBA5332E8B}" name="Tabel de salt" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{C18F3921-F511-46F9-A89F-9806DAC196AE}" name="Column6" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{A4498209-8E71-4BB0-8B49-825831C13099}" name="Column7" totalsRowFunction="count" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,328 +708,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="8" customWidth="1"/>
+    <col min="3" max="7" width="11" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="8" customWidth="1"/>
+    <col min="9" max="10" width="11" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="8"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="9" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2</v>
+      </c>
+      <c r="I2" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="I6" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="8" t="s">
+    </row>
+    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13">
-        <v>1</v>
-      </c>
-      <c r="I3" s="14">
-        <v>2</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="4">
+        <v>9</v>
+      </c>
+      <c r="I8" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
+    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12" t="s">
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="16">
-        <v>8</v>
-      </c>
-      <c r="I7" s="12">
-        <v>2</v>
-      </c>
-      <c r="J7" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="12">
-        <v>9</v>
-      </c>
-      <c r="J9" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Pushdown Automata/TabelGramatica.xlsx
+++ b/Pushdown Automata/TabelGramatica.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3CC13C21-A0DE-4E01-9872-7E4C674106D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{729C0368-5899-45A6-92EF-2D39A4F95E97}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>e3</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,41 +726,41 @@
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -777,13 +777,13 @@
     <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="4"/>
@@ -792,17 +792,17 @@
     <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="4"/>
@@ -811,17 +811,17 @@
     <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="4"/>
@@ -829,12 +829,12 @@
     </row>
     <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -851,17 +851,17 @@
     <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="4"/>
@@ -869,12 +869,12 @@
     </row>
     <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -888,12 +888,12 @@
     </row>
     <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -906,12 +906,12 @@
     <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="7"/>
@@ -921,17 +921,17 @@
     <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="4"/>
@@ -940,17 +940,17 @@
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="4"/>
@@ -959,17 +959,17 @@
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="4"/>
